--- a/protocol_template/D0000006245_Propulsion Management Functional Factory Type Test_Ed.A.xlsx
+++ b/protocol_template/D0000006245_Propulsion Management Functional Factory Type Test_Ed.A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caf2.sharepoint.com/sites/CAF_SecuenciadordePruebas/Shared Documents/General/BACKUP/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{546B1598-42FB-4FD2-BB33-C194B6E29135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FF5276C-60DE-4370-B996-037F8C81EFE7}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{546B1598-42FB-4FD2-BB33-C194B6E29135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E773408C-3EED-4865-AD7A-C4762F3DB2CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FA8AADB-0A41-4F4A-9189-902A4D079045}"/>
   </bookViews>
@@ -39,9 +39,31 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={25742ABC-EFDC-4E6F-AF4A-6B63DB90ACA4}</author>
+    <author>tc={FFBFED8E-0DD4-4107-B9A3-7CE1693BBD0B}</author>
+    <author>tc={3F7834A2-7F9C-4636-BE54-85A8A5DF427C}</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{25742ABC-EFDC-4E6F-AF4A-6B63DB90ACA4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Repeat the steps for all PMR pushbuttons in the vehicle.
+Reply:
+    There is only one PMR pushbutton per Car. It has been advised to repeat the test from both C1 &amp; C2</t>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="1" shapeId="0" xr:uid="{FFBFED8E-0DD4-4107-B9A3-7CE1693BBD0B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Repeat the steps for all PMR pushbuttons in the vehicle.
+Reply:
+    There is only one PMR pushbutton per Car. It has been advised to repeat the test from both C1 &amp; C2</t>
+      </text>
+    </comment>
+    <comment ref="C35" authorId="2" shapeId="0" xr:uid="{3F7834A2-7F9C-4636-BE54-85A8A5DF427C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Secuence number</t>
   </si>
@@ -184,12 +206,57 @@
   <si>
     <t>5.01120</t>
   </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Doors_02</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>6.01010</t>
+  </si>
+  <si>
+    <t>6.01020</t>
+  </si>
+  <si>
+    <t>6.01030</t>
+  </si>
+  <si>
+    <t>6.01040</t>
+  </si>
+  <si>
+    <t>6.01050</t>
+  </si>
+  <si>
+    <t>6.01060</t>
+  </si>
+  <si>
+    <t>6.01070</t>
+  </si>
+  <si>
+    <t>6.01080</t>
+  </si>
+  <si>
+    <t>6.02</t>
+  </si>
+  <si>
+    <t>6.02010</t>
+  </si>
+  <si>
+    <t>6.02020</t>
+  </si>
+  <si>
+    <t>6.02030</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +290,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -330,7 +404,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -389,22 +463,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -413,32 +510,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -448,7 +525,51 @@
     <cellStyle name="PASO ENSAYO" xfId="3" xr:uid="{EE5B63B4-88E8-43C8-9F48-F3C9C2C60882}"/>
     <cellStyle name="TEST CASE" xfId="1" xr:uid="{60D3215A-4059-46EE-A72E-DAA832E271A9}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -836,15 +957,27 @@
   <threadedComment ref="C3" dT="2023-06-15T10:50:09.50" personId="{2414B30E-36A4-4580-813F-87E0A16DCD89}" id="{30E0D68A-5657-4973-8F6F-FFA4DA7A6995}" parentId="{25742ABC-EFDC-4E6F-AF4A-6B63DB90ACA4}">
     <text>There is only one PMR pushbutton per Car. It has been advised to repeat the test from both C1 &amp; C2</text>
   </threadedComment>
+  <threadedComment ref="C22" dT="2023-06-02T11:54:50.32" personId="{96B5841A-F5AE-40B6-AF24-C811B611DAFA}" id="{FFBFED8E-0DD4-4107-B9A3-7CE1693BBD0B}" done="1">
+    <text>Repeat the steps for all PMR pushbuttons in the vehicle.</text>
+  </threadedComment>
+  <threadedComment ref="C22" dT="2023-06-15T10:50:09.50" personId="{2414B30E-36A4-4580-813F-87E0A16DCD89}" id="{3ED5E23F-A988-4C5E-BD3F-86822ECC6CAB}" parentId="{FFBFED8E-0DD4-4107-B9A3-7CE1693BBD0B}">
+    <text>There is only one PMR pushbutton per Car. It has been advised to repeat the test from both C1 &amp; C2</text>
+  </threadedComment>
+  <threadedComment ref="C35" dT="2023-06-02T11:54:50.32" personId="{96B5841A-F5AE-40B6-AF24-C811B611DAFA}" id="{3F7834A2-7F9C-4636-BE54-85A8A5DF427C}" done="1">
+    <text>Repeat the steps for all PMR pushbuttons in the vehicle.</text>
+  </threadedComment>
+  <threadedComment ref="C35" dT="2023-06-15T10:50:09.50" personId="{2414B30E-36A4-4580-813F-87E0A16DCD89}" id="{F3AD8EA2-A3DC-4836-8ECF-053EACE08092}" parentId="{3F7834A2-7F9C-4636-BE54-85A8A5DF427C}">
+    <text>There is only one PMR pushbutton per Car. It has been advised to repeat the test from both C1 &amp; C2</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA710D5-CAF3-4375-8689-125363782A00}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -925,13 +1058,13 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="28">
+      <c r="A5" s="31">
         <v>5</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -947,13 +1080,13 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="6"/>
@@ -983,13 +1116,13 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A8" s="28">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1003,9 +1136,9 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="99.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
@@ -1017,9 +1150,9 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1075,13 +1208,13 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="33.75">
-      <c r="A13" s="19">
+      <c r="A13" s="26">
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1095,9 +1228,9 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="50.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="8" t="s">
         <v>15</v>
       </c>
@@ -1131,13 +1264,13 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A16" s="19">
+      <c r="A16" s="26">
         <v>5</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1151,9 +1284,9 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="99.75" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8" t="s">
         <v>34</v>
       </c>
@@ -1165,9 +1298,9 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1222,51 +1355,442 @@
       <c r="I20" s="6"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="C23" s="12"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="13">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="28.5">
+      <c r="A22" s="16">
+        <v>6</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="101.25">
+      <c r="A23" s="17">
+        <v>6</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="33.75">
+      <c r="A24" s="13">
+        <v>6</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="50.25">
+      <c r="A25" s="13">
+        <v>6</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="33.75">
+      <c r="A26" s="13">
+        <v>6</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="33.75">
+      <c r="A27" s="13">
+        <v>6</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="117">
+      <c r="A28" s="13">
+        <v>6</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="33.75">
+      <c r="A29" s="13">
+        <v>6</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="50.25">
+      <c r="A30" s="13">
+        <v>6</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="50.25">
+      <c r="A31" s="13">
+        <v>6</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="33.75">
+      <c r="A32" s="13">
+        <v>6</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" ht="50.25">
+      <c r="A33" s="13">
+        <v>6</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" ht="33.75">
+      <c r="A34" s="13">
+        <v>6</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="28.5">
+      <c r="A35" s="16">
+        <v>6</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="101.25">
+      <c r="A36" s="17">
+        <v>6</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="33.75">
+      <c r="A37" s="13">
+        <v>6</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="50.25">
+      <c r="A38" s="13">
+        <v>6</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" ht="33.75">
+      <c r="A39" s="13">
+        <v>6</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I6">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J6">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H6">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:I3">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I25">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J6">
+  <conditionalFormatting sqref="J23:J25">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H6">
+  <conditionalFormatting sqref="G23:H25">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:I3">
+  <conditionalFormatting sqref="G22:I22">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="J22">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H20" xr:uid="{BE8F64A7-C2AE-4B58-82F0-B1B601323533}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H20 G23:H39" xr:uid="{BE8F64A7-C2AE-4B58-82F0-B1B601323533}">
       <formula1>"OK,NOK,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1564,7 +2088,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59F38CB4-2F8A-48B3-9DBD-7176024BE7B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75815159-CCE8-485B-AF5E-D536867ADB2C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
